--- a/data/horarios-11-04.raw.xlsx
+++ b/data/horarios-11-04.raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9414613-4300-4FAF-BD8C-F535DF2ECC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1B2026-77CC-405A-BD58-2C069DC358FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2C868944-6ED4-44B1-9497-33B7DCFDC6CB}"/>
   </bookViews>
@@ -1419,7 +1419,16 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4110D14C-1185-48FB-A6BC-4692CA0AE993}" name="Table1" displayName="Table1" ref="A1:R511" totalsRowShown="0">
-  <autoFilter ref="A1:R511" xr:uid="{4110D14C-1185-48FB-A6BC-4692CA0AE993}"/>
+  <autoFilter ref="A1:R511" xr:uid="{4110D14C-1185-48FB-A6BC-4692CA0AE993}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="TRIBUTOS II"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A350:R368">
+    <sortCondition ref="D1:D511"/>
+  </sortState>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{D0C098B1-F39C-4D40-A87A-86F21939ED36}" name="PLAN DE_x000a_ESTUDIOS"/>
     <tableColumn id="2" xr3:uid="{ECA4482D-E255-47F6-A05E-6718D530A96F}" name="CICLO"/>
@@ -1764,7 +1773,7 @@
   <dimension ref="A1:R511"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D350" sqref="D350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,7 +1849,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2022</v>
       </c>
@@ -1884,7 +1893,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -1928,7 +1937,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2022</v>
       </c>
@@ -1972,7 +1981,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -2013,7 +2022,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -2054,7 +2063,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2022</v>
       </c>
@@ -2098,7 +2107,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2022</v>
       </c>
@@ -2142,7 +2151,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -2186,7 +2195,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -2230,7 +2239,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -2274,7 +2283,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2022</v>
       </c>
@@ -2318,7 +2327,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2022</v>
       </c>
@@ -2359,7 +2368,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2025</v>
       </c>
@@ -2403,7 +2412,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2022</v>
       </c>
@@ -2447,7 +2456,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2025</v>
       </c>
@@ -2491,7 +2500,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2022</v>
       </c>
@@ -2532,7 +2541,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2023</v>
       </c>
@@ -2576,7 +2585,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2023</v>
       </c>
@@ -2620,7 +2629,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2025</v>
       </c>
@@ -2664,7 +2673,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2023</v>
       </c>
@@ -2708,7 +2717,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2022</v>
       </c>
@@ -2752,7 +2761,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2022</v>
       </c>
@@ -2796,7 +2805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2022</v>
       </c>
@@ -2840,7 +2849,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2022</v>
       </c>
@@ -2884,7 +2893,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2022</v>
       </c>
@@ -2931,7 +2940,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2022</v>
       </c>
@@ -2978,7 +2987,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2022</v>
       </c>
@@ -3022,7 +3031,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2022</v>
       </c>
@@ -3066,7 +3075,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2025</v>
       </c>
@@ -3110,7 +3119,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2023</v>
       </c>
@@ -3154,7 +3163,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2022</v>
       </c>
@@ -3198,7 +3207,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2022</v>
       </c>
@@ -3242,7 +3251,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2022</v>
       </c>
@@ -3286,7 +3295,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2022</v>
       </c>
@@ -3327,7 +3336,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2022</v>
       </c>
@@ -3368,7 +3377,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2022</v>
       </c>
@@ -3409,7 +3418,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2022</v>
       </c>
@@ -3453,7 +3462,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2022</v>
       </c>
@@ -3497,7 +3506,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2022</v>
       </c>
@@ -3541,7 +3550,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2023</v>
       </c>
@@ -3585,7 +3594,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2022</v>
       </c>
@@ -3626,7 +3635,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2022</v>
       </c>
@@ -3670,7 +3679,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2022</v>
       </c>
@@ -3714,7 +3723,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2022</v>
       </c>
@@ -3758,7 +3767,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2022</v>
       </c>
@@ -3802,7 +3811,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2022</v>
       </c>
@@ -3846,7 +3855,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2022</v>
       </c>
@@ -3890,7 +3899,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2025</v>
       </c>
@@ -3934,7 +3943,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2023</v>
       </c>
@@ -3978,7 +3987,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2022</v>
       </c>
@@ -4019,7 +4028,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2022</v>
       </c>
@@ -4060,7 +4069,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2022</v>
       </c>
@@ -4104,7 +4113,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2022</v>
       </c>
@@ -4148,7 +4157,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2025</v>
       </c>
@@ -4189,7 +4198,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2022</v>
       </c>
@@ -4233,7 +4242,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2022</v>
       </c>
@@ -4277,7 +4286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2025</v>
       </c>
@@ -4321,7 +4330,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2023</v>
       </c>
@@ -4365,7 +4374,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2022</v>
       </c>
@@ -4406,7 +4415,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2022</v>
       </c>
@@ -4450,7 +4459,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2022</v>
       </c>
@@ -4494,7 +4503,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2025</v>
       </c>
@@ -4538,7 +4547,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2023</v>
       </c>
@@ -4582,7 +4591,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2022</v>
       </c>
@@ -4623,7 +4632,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2022</v>
       </c>
@@ -4667,7 +4676,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2022</v>
       </c>
@@ -4711,7 +4720,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2022</v>
       </c>
@@ -4755,7 +4764,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2022</v>
       </c>
@@ -4796,7 +4805,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2022</v>
       </c>
@@ -4837,7 +4846,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2022</v>
       </c>
@@ -4881,7 +4890,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2022</v>
       </c>
@@ -4925,7 +4934,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2022</v>
       </c>
@@ -4969,7 +4978,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2022</v>
       </c>
@@ -5013,7 +5022,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2022</v>
       </c>
@@ -5057,7 +5066,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2022</v>
       </c>
@@ -5101,7 +5110,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2023</v>
       </c>
@@ -5145,7 +5154,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2022</v>
       </c>
@@ -5186,7 +5195,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2022</v>
       </c>
@@ -5227,7 +5236,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2022</v>
       </c>
@@ -5271,7 +5280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2022</v>
       </c>
@@ -5315,7 +5324,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2022</v>
       </c>
@@ -5359,7 +5368,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2023</v>
       </c>
@@ -5403,7 +5412,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2022</v>
       </c>
@@ -5444,7 +5453,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2022</v>
       </c>
@@ -5488,7 +5497,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2025</v>
       </c>
@@ -5532,7 +5541,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2022</v>
       </c>
@@ -5573,7 +5582,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2022</v>
       </c>
@@ -5617,7 +5626,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2022</v>
       </c>
@@ -5661,7 +5670,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2025</v>
       </c>
@@ -5705,7 +5714,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2022</v>
       </c>
@@ -5749,7 +5758,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2022</v>
       </c>
@@ -5793,7 +5802,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2022</v>
       </c>
@@ -5837,7 +5846,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2023</v>
       </c>
@@ -5881,7 +5890,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2022</v>
       </c>
@@ -5922,7 +5931,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2022</v>
       </c>
@@ -5966,7 +5975,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2022</v>
       </c>
@@ -6010,7 +6019,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2022</v>
       </c>
@@ -6054,7 +6063,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2023</v>
       </c>
@@ -6098,7 +6107,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2022</v>
       </c>
@@ -6142,7 +6151,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2022</v>
       </c>
@@ -6186,7 +6195,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2022</v>
       </c>
@@ -6230,7 +6239,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2022</v>
       </c>
@@ -6274,7 +6283,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2022</v>
       </c>
@@ -6318,7 +6327,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2025</v>
       </c>
@@ -6362,7 +6371,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2022</v>
       </c>
@@ -6406,7 +6415,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2022</v>
       </c>
@@ -6447,7 +6456,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2025</v>
       </c>
@@ -6491,7 +6500,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2022</v>
       </c>
@@ -6535,7 +6544,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2022</v>
       </c>
@@ -6579,7 +6588,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2022</v>
       </c>
@@ -6623,7 +6632,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2023</v>
       </c>
@@ -6667,7 +6676,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2025</v>
       </c>
@@ -6711,7 +6720,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2023</v>
       </c>
@@ -6755,7 +6764,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2022</v>
       </c>
@@ -6796,7 +6805,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2022</v>
       </c>
@@ -6840,7 +6849,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2022</v>
       </c>
@@ -6884,7 +6893,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2022</v>
       </c>
@@ -6928,7 +6937,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2025</v>
       </c>
@@ -6972,7 +6981,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2022</v>
       </c>
@@ -7013,7 +7022,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2022</v>
       </c>
@@ -7054,7 +7063,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2022</v>
       </c>
@@ -7098,7 +7107,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2022</v>
       </c>
@@ -7145,7 +7154,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2022</v>
       </c>
@@ -7189,7 +7198,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2022</v>
       </c>
@@ -7233,7 +7242,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2022</v>
       </c>
@@ -7277,7 +7286,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2022</v>
       </c>
@@ -7321,7 +7330,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2022</v>
       </c>
@@ -7362,7 +7371,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2022</v>
       </c>
@@ -7406,7 +7415,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2022</v>
       </c>
@@ -7450,7 +7459,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2022</v>
       </c>
@@ -7494,7 +7503,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2022</v>
       </c>
@@ -7538,7 +7547,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2022</v>
       </c>
@@ -7582,7 +7591,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2022</v>
       </c>
@@ -7626,7 +7635,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2022</v>
       </c>
@@ -7670,7 +7679,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2022</v>
       </c>
@@ -7714,7 +7723,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2025</v>
       </c>
@@ -7758,7 +7767,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2023</v>
       </c>
@@ -7802,7 +7811,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2022</v>
       </c>
@@ -7846,7 +7855,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2022</v>
       </c>
@@ -7887,7 +7896,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2022</v>
       </c>
@@ -7931,7 +7940,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2025</v>
       </c>
@@ -7975,7 +7984,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2022</v>
       </c>
@@ -8019,7 +8028,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2022</v>
       </c>
@@ -8063,7 +8072,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2023</v>
       </c>
@@ -8104,7 +8113,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2022</v>
       </c>
@@ -8148,7 +8157,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2022</v>
       </c>
@@ -8192,7 +8201,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2023</v>
       </c>
@@ -8236,7 +8245,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2022</v>
       </c>
@@ -8280,7 +8289,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2023</v>
       </c>
@@ -8324,7 +8333,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2022</v>
       </c>
@@ -8368,7 +8377,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2022</v>
       </c>
@@ -8409,7 +8418,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2022</v>
       </c>
@@ -8453,7 +8462,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2022</v>
       </c>
@@ -8497,7 +8506,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2022</v>
       </c>
@@ -8541,7 +8550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2022</v>
       </c>
@@ -8582,7 +8591,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2022</v>
       </c>
@@ -8626,7 +8635,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2022</v>
       </c>
@@ -8670,7 +8679,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2022</v>
       </c>
@@ -8714,7 +8723,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2022</v>
       </c>
@@ -8758,7 +8767,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2022</v>
       </c>
@@ -8802,7 +8811,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2022</v>
       </c>
@@ -8846,7 +8855,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2022</v>
       </c>
@@ -8890,7 +8899,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2022</v>
       </c>
@@ -8934,7 +8943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2022</v>
       </c>
@@ -8978,7 +8987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2022</v>
       </c>
@@ -9022,7 +9031,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2022</v>
       </c>
@@ -9066,7 +9075,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2022</v>
       </c>
@@ -9110,7 +9119,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2022</v>
       </c>
@@ -9154,7 +9163,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2023</v>
       </c>
@@ -9198,7 +9207,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>2023</v>
       </c>
@@ -9242,7 +9251,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2022</v>
       </c>
@@ -9286,7 +9295,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2022</v>
       </c>
@@ -9330,7 +9339,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2022</v>
       </c>
@@ -9374,7 +9383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2022</v>
       </c>
@@ -9418,7 +9427,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2022</v>
       </c>
@@ -9462,7 +9471,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2022</v>
       </c>
@@ -9506,7 +9515,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2022</v>
       </c>
@@ -9547,7 +9556,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2022</v>
       </c>
@@ -9588,7 +9597,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2022</v>
       </c>
@@ -9632,7 +9641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2022</v>
       </c>
@@ -9676,7 +9685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2022</v>
       </c>
@@ -9720,7 +9729,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2023</v>
       </c>
@@ -9764,7 +9773,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>2023</v>
       </c>
@@ -9808,7 +9817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>2022</v>
       </c>
@@ -9852,7 +9861,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2022</v>
       </c>
@@ -9896,7 +9905,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2022</v>
       </c>
@@ -9940,7 +9949,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2022</v>
       </c>
@@ -9984,7 +9993,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2022</v>
       </c>
@@ -10028,7 +10037,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>2022</v>
       </c>
@@ -10072,7 +10081,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2022</v>
       </c>
@@ -10113,7 +10122,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>2022</v>
       </c>
@@ -10157,7 +10166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>2022</v>
       </c>
@@ -10201,7 +10210,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>2022</v>
       </c>
@@ -10245,7 +10254,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2022</v>
       </c>
@@ -10289,7 +10298,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>2023</v>
       </c>
@@ -10333,7 +10342,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>2023</v>
       </c>
@@ -10377,7 +10386,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>2022</v>
       </c>
@@ -10421,7 +10430,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2022</v>
       </c>
@@ -10465,7 +10474,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2022</v>
       </c>
@@ -10509,7 +10518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2022</v>
       </c>
@@ -10553,7 +10562,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2022</v>
       </c>
@@ -10597,7 +10606,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2022</v>
       </c>
@@ -10638,7 +10647,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2022</v>
       </c>
@@ -10682,7 +10691,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2022</v>
       </c>
@@ -10723,7 +10732,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2022</v>
       </c>
@@ -10767,7 +10776,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>2022</v>
       </c>
@@ -10808,7 +10817,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2022</v>
       </c>
@@ -10852,7 +10861,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2023</v>
       </c>
@@ -10896,7 +10905,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>2023</v>
       </c>
@@ -10940,7 +10949,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>2022</v>
       </c>
@@ -10987,7 +10996,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>2022</v>
       </c>
@@ -11034,7 +11043,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2022</v>
       </c>
@@ -11075,7 +11084,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2022</v>
       </c>
@@ -11119,7 +11128,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2022</v>
       </c>
@@ -11163,7 +11172,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>2022</v>
       </c>
@@ -11207,7 +11216,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>2022</v>
       </c>
@@ -11254,7 +11263,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>2022</v>
       </c>
@@ -11301,7 +11310,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>2022</v>
       </c>
@@ -11348,7 +11357,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>2022</v>
       </c>
@@ -11392,7 +11401,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>2022</v>
       </c>
@@ -11436,7 +11445,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2023</v>
       </c>
@@ -11483,7 +11492,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2023</v>
       </c>
@@ -11530,7 +11539,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2022</v>
       </c>
@@ -11577,7 +11586,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>2022</v>
       </c>
@@ -11624,7 +11633,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>2022</v>
       </c>
@@ -11671,7 +11680,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2022</v>
       </c>
@@ -11712,7 +11721,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>2022</v>
       </c>
@@ -11759,7 +11768,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>2022</v>
       </c>
@@ -11806,7 +11815,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>2022</v>
       </c>
@@ -11853,7 +11862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>2022</v>
       </c>
@@ -11900,7 +11909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>2022</v>
       </c>
@@ -11947,7 +11956,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>2022</v>
       </c>
@@ -11994,7 +12003,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2022</v>
       </c>
@@ -12038,7 +12047,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>2023</v>
       </c>
@@ -12082,7 +12091,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>2023</v>
       </c>
@@ -12126,7 +12135,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>2022</v>
       </c>
@@ -12170,7 +12179,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>2022</v>
       </c>
@@ -12214,7 +12223,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>2022</v>
       </c>
@@ -12258,7 +12267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>2022</v>
       </c>
@@ -12302,7 +12311,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2022</v>
       </c>
@@ -12346,7 +12355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>2022</v>
       </c>
@@ -12390,7 +12399,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>2022</v>
       </c>
@@ -12434,7 +12443,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>2022</v>
       </c>
@@ -12478,7 +12487,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>2022</v>
       </c>
@@ -12522,7 +12531,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>2022</v>
       </c>
@@ -12566,7 +12575,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>2022</v>
       </c>
@@ -12610,7 +12619,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>2022</v>
       </c>
@@ -12654,7 +12663,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>2022</v>
       </c>
@@ -12698,7 +12707,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>2022</v>
       </c>
@@ -12742,7 +12751,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>2022</v>
       </c>
@@ -12783,7 +12792,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>2022</v>
       </c>
@@ -12824,7 +12833,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>2023</v>
       </c>
@@ -12868,7 +12877,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>2023</v>
       </c>
@@ -12912,7 +12921,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>2023</v>
       </c>
@@ -12956,7 +12965,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>2022</v>
       </c>
@@ -13003,7 +13012,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>2022</v>
       </c>
@@ -13050,7 +13059,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>2022</v>
       </c>
@@ -13097,7 +13106,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2022</v>
       </c>
@@ -13141,7 +13150,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2022</v>
       </c>
@@ -13185,7 +13194,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2022</v>
       </c>
@@ -13229,7 +13238,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>2022</v>
       </c>
@@ -13276,7 +13285,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>2022</v>
       </c>
@@ -13323,7 +13332,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>2022</v>
       </c>
@@ -13370,7 +13379,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>2022</v>
       </c>
@@ -13414,7 +13423,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>2022</v>
       </c>
@@ -13458,7 +13467,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2022</v>
       </c>
@@ -13505,7 +13514,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>2022</v>
       </c>
@@ -13549,7 +13558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>2022</v>
       </c>
@@ -13593,7 +13602,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>2022</v>
       </c>
@@ -13640,7 +13649,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>2022</v>
       </c>
@@ -13687,7 +13696,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>2023</v>
       </c>
@@ -13731,7 +13740,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>2023</v>
       </c>
@@ -13775,7 +13784,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>2023</v>
       </c>
@@ -13819,7 +13828,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>2022</v>
       </c>
@@ -13863,7 +13872,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>2022</v>
       </c>
@@ -13907,7 +13916,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>2022</v>
       </c>
@@ -13951,7 +13960,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>2022</v>
       </c>
@@ -13995,7 +14004,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>2022</v>
       </c>
@@ -14039,7 +14048,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>2022</v>
       </c>
@@ -14083,7 +14092,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>2022</v>
       </c>
@@ -14127,7 +14136,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>2022</v>
       </c>
@@ -14168,7 +14177,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>2022</v>
       </c>
@@ -14212,7 +14221,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>2022</v>
       </c>
@@ -14256,7 +14265,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>2022</v>
       </c>
@@ -14300,7 +14309,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>2023</v>
       </c>
@@ -14341,7 +14350,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>2022</v>
       </c>
@@ -14385,7 +14394,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>2022</v>
       </c>
@@ -14426,7 +14435,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>2023</v>
       </c>
@@ -14470,7 +14479,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>2022</v>
       </c>
@@ -14514,7 +14523,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>2022</v>
       </c>
@@ -14558,7 +14567,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>2023</v>
       </c>
@@ -14602,7 +14611,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>2022</v>
       </c>
@@ -14646,7 +14655,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>2022</v>
       </c>
@@ -14690,7 +14699,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>2022</v>
       </c>
@@ -14734,7 +14743,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>2022</v>
       </c>
@@ -14778,7 +14787,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>2022</v>
       </c>
@@ -14822,7 +14831,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>2022</v>
       </c>
@@ -14866,7 +14875,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>2022</v>
       </c>
@@ -14910,7 +14919,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>2022</v>
       </c>
@@ -14954,7 +14963,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>2022</v>
       </c>
@@ -14998,7 +15007,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>2023</v>
       </c>
@@ -15042,7 +15051,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2022</v>
       </c>
@@ -15086,7 +15095,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>2022</v>
       </c>
@@ -15130,7 +15139,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>2023</v>
       </c>
@@ -15174,7 +15183,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>2022</v>
       </c>
@@ -15218,7 +15227,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>2022</v>
       </c>
@@ -15262,7 +15271,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>2022</v>
       </c>
@@ -15306,7 +15315,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>2022</v>
       </c>
@@ -15350,7 +15359,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>2023</v>
       </c>
@@ -15394,7 +15403,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>2022</v>
       </c>
@@ -15438,7 +15447,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>2022</v>
       </c>
@@ -15479,7 +15488,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>2022</v>
       </c>
@@ -15523,7 +15532,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>2022</v>
       </c>
@@ -15567,7 +15576,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>2022</v>
       </c>
@@ -15611,7 +15620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>2022</v>
       </c>
@@ -15655,7 +15664,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>2022</v>
       </c>
@@ -15699,7 +15708,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>2022</v>
       </c>
@@ -15743,7 +15752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>2022</v>
       </c>
@@ -15787,7 +15796,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>2022</v>
       </c>
@@ -15831,7 +15840,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>2022</v>
       </c>
@@ -15875,7 +15884,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>2022</v>
       </c>
@@ -15919,7 +15928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>2022</v>
       </c>
@@ -15963,7 +15972,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>2022</v>
       </c>
@@ -16007,7 +16016,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>2022</v>
       </c>
@@ -16051,7 +16060,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>2022</v>
       </c>
@@ -16092,7 +16101,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>2022</v>
       </c>
@@ -16136,7 +16145,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>2023</v>
       </c>
@@ -16180,7 +16189,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>2023</v>
       </c>
@@ -16224,7 +16233,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>2023</v>
       </c>
@@ -16268,7 +16277,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>2022</v>
       </c>
@@ -16312,7 +16321,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>2022</v>
       </c>
@@ -16356,7 +16365,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>2023</v>
       </c>
@@ -16400,7 +16409,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>2023</v>
       </c>
@@ -16444,7 +16453,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>2022</v>
       </c>
@@ -16488,7 +16497,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>2022</v>
       </c>
@@ -16532,7 +16541,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>2022</v>
       </c>
@@ -16576,7 +16585,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>2023</v>
       </c>
@@ -16620,7 +16629,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>2022</v>
       </c>
@@ -16664,7 +16673,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>2022</v>
       </c>
@@ -16708,7 +16717,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>2022</v>
       </c>
@@ -16752,7 +16761,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>2022</v>
       </c>
@@ -16796,7 +16805,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>2022</v>
       </c>
@@ -16840,7 +16849,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>2022</v>
       </c>
@@ -16884,7 +16893,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>2022</v>
       </c>
@@ -16928,7 +16937,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>2022</v>
       </c>
@@ -16972,7 +16981,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>2022</v>
       </c>
@@ -17016,7 +17025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>2022</v>
       </c>
@@ -17060,7 +17069,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>2022</v>
       </c>
@@ -17112,10 +17121,10 @@
         <v>5</v>
       </c>
       <c r="C350" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D350">
-        <v>112555</v>
+        <v>111555</v>
       </c>
       <c r="E350" t="s">
         <v>327</v>
@@ -17133,19 +17142,19 @@
         <v>3</v>
       </c>
       <c r="J350" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="K350" t="s">
         <v>21</v>
       </c>
       <c r="L350" t="s">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="N350" t="s">
-        <v>27</v>
-      </c>
-      <c r="O350" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="Q350" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="351" spans="1:17" x14ac:dyDescent="0.25">
@@ -17159,7 +17168,7 @@
         <v>18</v>
       </c>
       <c r="D351">
-        <v>111551</v>
+        <v>111555</v>
       </c>
       <c r="E351" t="s">
         <v>327</v>
@@ -17177,7 +17186,7 @@
         <v>3</v>
       </c>
       <c r="J351" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K351" t="s">
         <v>21</v>
@@ -17185,11 +17194,11 @@
       <c r="L351" t="s">
         <v>313</v>
       </c>
-      <c r="N351" t="s">
+      <c r="M351" t="s">
         <v>24</v>
       </c>
       <c r="Q351" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="352" spans="1:17" x14ac:dyDescent="0.25">
@@ -17221,19 +17230,19 @@
         <v>3</v>
       </c>
       <c r="J352" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="K352" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L352" t="s">
-        <v>313</v>
-      </c>
-      <c r="M352" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q352" t="s">
-        <v>27</v>
+        <v>198</v>
+      </c>
+      <c r="N352" t="s">
+        <v>55</v>
+      </c>
+      <c r="P352" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="353" spans="1:17" x14ac:dyDescent="0.25">
@@ -17265,7 +17274,7 @@
         <v>3</v>
       </c>
       <c r="J353" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K353" t="s">
         <v>31</v>
@@ -17273,11 +17282,11 @@
       <c r="L353" t="s">
         <v>198</v>
       </c>
-      <c r="N353" t="s">
+      <c r="M353" t="s">
         <v>55</v>
       </c>
-      <c r="P353" t="s">
-        <v>55</v>
+      <c r="Q353" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="354" spans="1:17" x14ac:dyDescent="0.25">
@@ -17309,19 +17318,19 @@
         <v>3</v>
       </c>
       <c r="J354" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="K354" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L354" t="s">
-        <v>198</v>
-      </c>
-      <c r="M354" t="s">
-        <v>55</v>
+        <v>329</v>
+      </c>
+      <c r="N354" t="s">
+        <v>27</v>
       </c>
       <c r="Q354" t="s">
-        <v>65</v>
+        <v>330</v>
       </c>
     </row>
     <row r="355" spans="1:17" x14ac:dyDescent="0.25">
@@ -17332,10 +17341,10 @@
         <v>5</v>
       </c>
       <c r="C355" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D355">
-        <v>112555</v>
+        <v>111555</v>
       </c>
       <c r="E355" t="s">
         <v>327</v>
@@ -17353,7 +17362,7 @@
         <v>3</v>
       </c>
       <c r="J355" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K355" t="s">
         <v>252</v>
@@ -17362,10 +17371,10 @@
         <v>328</v>
       </c>
       <c r="M355" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="O355" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="356" spans="1:17" x14ac:dyDescent="0.25">
@@ -17376,10 +17385,10 @@
         <v>5</v>
       </c>
       <c r="C356" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D356">
-        <v>113555</v>
+        <v>111555</v>
       </c>
       <c r="E356" t="s">
         <v>327</v>
@@ -17397,19 +17406,19 @@
         <v>3</v>
       </c>
       <c r="J356" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="K356" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="L356" t="s">
-        <v>328</v>
-      </c>
-      <c r="M356" t="s">
-        <v>266</v>
-      </c>
-      <c r="O356" t="s">
-        <v>266</v>
+        <v>331</v>
+      </c>
+      <c r="N356" t="s">
+        <v>245</v>
+      </c>
+      <c r="P356" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="357" spans="1:17" x14ac:dyDescent="0.25">
@@ -17441,19 +17450,19 @@
         <v>3</v>
       </c>
       <c r="J357" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="K357" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
       <c r="L357" t="s">
-        <v>329</v>
-      </c>
-      <c r="N357" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q357" t="s">
-        <v>330</v>
+        <v>201</v>
+      </c>
+      <c r="M357" t="s">
+        <v>266</v>
+      </c>
+      <c r="O357" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="358" spans="1:17" x14ac:dyDescent="0.25">
@@ -17464,10 +17473,10 @@
         <v>5</v>
       </c>
       <c r="C358" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D358">
-        <v>113555</v>
+        <v>112555</v>
       </c>
       <c r="E358" t="s">
         <v>327</v>
@@ -17485,19 +17494,19 @@
         <v>3</v>
       </c>
       <c r="J358" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K358" t="s">
         <v>21</v>
       </c>
       <c r="L358" t="s">
-        <v>329</v>
-      </c>
-      <c r="M358" t="s">
+        <v>197</v>
+      </c>
+      <c r="N358" t="s">
         <v>27</v>
       </c>
-      <c r="Q358" t="s">
-        <v>117</v>
+      <c r="O358" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="359" spans="1:17" x14ac:dyDescent="0.25">
@@ -17508,10 +17517,10 @@
         <v>5</v>
       </c>
       <c r="C359" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D359">
-        <v>113555</v>
+        <v>112555</v>
       </c>
       <c r="E359" t="s">
         <v>327</v>
@@ -17529,19 +17538,19 @@
         <v>3</v>
       </c>
       <c r="J359" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="K359" t="s">
-        <v>31</v>
+        <v>252</v>
       </c>
       <c r="L359" t="s">
-        <v>329</v>
-      </c>
-      <c r="N359" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q359" t="s">
-        <v>59</v>
+        <v>328</v>
+      </c>
+      <c r="M359" t="s">
+        <v>302</v>
+      </c>
+      <c r="O359" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="360" spans="1:17" x14ac:dyDescent="0.25">
@@ -17596,10 +17605,10 @@
         <v>5</v>
       </c>
       <c r="C361" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D361">
-        <v>111555</v>
+        <v>112555</v>
       </c>
       <c r="E361" t="s">
         <v>327</v>
@@ -17617,19 +17626,19 @@
         <v>3</v>
       </c>
       <c r="J361" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="K361" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="L361" t="s">
-        <v>328</v>
-      </c>
-      <c r="M361" t="s">
-        <v>254</v>
-      </c>
-      <c r="O361" t="s">
-        <v>255</v>
+        <v>331</v>
+      </c>
+      <c r="N361" t="s">
+        <v>65</v>
+      </c>
+      <c r="P361" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="362" spans="1:17" x14ac:dyDescent="0.25">
@@ -17640,10 +17649,10 @@
         <v>5</v>
       </c>
       <c r="C362" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D362">
-        <v>111555</v>
+        <v>113555</v>
       </c>
       <c r="E362" t="s">
         <v>327</v>
@@ -17661,19 +17670,19 @@
         <v>3</v>
       </c>
       <c r="J362" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="K362" t="s">
-        <v>31</v>
+        <v>252</v>
       </c>
       <c r="L362" t="s">
-        <v>331</v>
-      </c>
-      <c r="N362" t="s">
-        <v>245</v>
-      </c>
-      <c r="P362" t="s">
-        <v>55</v>
+        <v>328</v>
+      </c>
+      <c r="M362" t="s">
+        <v>266</v>
+      </c>
+      <c r="O362" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="363" spans="1:17" x14ac:dyDescent="0.25">
@@ -17684,10 +17693,10 @@
         <v>5</v>
       </c>
       <c r="C363" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D363">
-        <v>112555</v>
+        <v>113555</v>
       </c>
       <c r="E363" t="s">
         <v>327</v>
@@ -17705,19 +17714,19 @@
         <v>3</v>
       </c>
       <c r="J363" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="K363" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L363" t="s">
-        <v>331</v>
-      </c>
-      <c r="N363" t="s">
-        <v>65</v>
-      </c>
-      <c r="P363" t="s">
-        <v>59</v>
+        <v>329</v>
+      </c>
+      <c r="M363" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q363" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="364" spans="1:17" x14ac:dyDescent="0.25">
@@ -17728,10 +17737,10 @@
         <v>5</v>
       </c>
       <c r="C364" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D364">
-        <v>111555</v>
+        <v>113555</v>
       </c>
       <c r="E364" t="s">
         <v>327</v>
@@ -17749,19 +17758,19 @@
         <v>3</v>
       </c>
       <c r="J364" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="K364" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="L364" t="s">
-        <v>201</v>
-      </c>
-      <c r="M364" t="s">
-        <v>266</v>
-      </c>
-      <c r="O364" t="s">
-        <v>255</v>
+        <v>329</v>
+      </c>
+      <c r="N364" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q364" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="365" spans="1:17" x14ac:dyDescent="0.25">
@@ -17940,7 +17949,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>2022</v>
       </c>
@@ -17984,7 +17993,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>2022</v>
       </c>
@@ -18028,7 +18037,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>2022</v>
       </c>
@@ -18072,7 +18081,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>2022</v>
       </c>
@@ -18116,7 +18125,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>2022</v>
       </c>
@@ -18160,7 +18169,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>2022</v>
       </c>
@@ -18204,7 +18213,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>2022</v>
       </c>
@@ -18248,7 +18257,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>2022</v>
       </c>
@@ -18292,7 +18301,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>2022</v>
       </c>
@@ -18336,7 +18345,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>2022</v>
       </c>
@@ -18380,7 +18389,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>2022</v>
       </c>
@@ -18424,7 +18433,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>2022</v>
       </c>
@@ -18468,7 +18477,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>2022</v>
       </c>
@@ -18509,7 +18518,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>2022</v>
       </c>
@@ -18553,7 +18562,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>2022</v>
       </c>
@@ -18597,7 +18606,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>2022</v>
       </c>
@@ -18641,7 +18650,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>2022</v>
       </c>
@@ -18685,7 +18694,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>2022</v>
       </c>
@@ -18729,7 +18738,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>2022</v>
       </c>
@@ -18770,7 +18779,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>2022</v>
       </c>
@@ -18814,7 +18823,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>2022</v>
       </c>
@@ -18858,7 +18867,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>2022</v>
       </c>
@@ -18902,7 +18911,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>2022</v>
       </c>
@@ -18946,7 +18955,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>2022</v>
       </c>
@@ -18990,7 +18999,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>2022</v>
       </c>
@@ -19034,7 +19043,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>2022</v>
       </c>
@@ -19078,7 +19087,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>2022</v>
       </c>
@@ -19122,7 +19131,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>2022</v>
       </c>
@@ -19166,7 +19175,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>2022</v>
       </c>
@@ -19207,7 +19216,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>2022</v>
       </c>
@@ -19251,7 +19260,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>2022</v>
       </c>
@@ -19295,7 +19304,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>2022</v>
       </c>
@@ -19339,7 +19348,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="401" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>2022</v>
       </c>
@@ -19383,7 +19392,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="402" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>2022</v>
       </c>
@@ -19427,7 +19436,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="403" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>2022</v>
       </c>
@@ -19471,7 +19480,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="404" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>2022</v>
       </c>
@@ -19515,7 +19524,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>2022</v>
       </c>
@@ -19556,7 +19565,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="406" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>2022</v>
       </c>
@@ -19600,7 +19609,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="407" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>2022</v>
       </c>
@@ -19644,7 +19653,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="408" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>2022</v>
       </c>
@@ -19688,7 +19697,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>2022</v>
       </c>
@@ -19732,7 +19741,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="410" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>2022</v>
       </c>
@@ -19776,7 +19785,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="411" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>2022</v>
       </c>
@@ -19820,7 +19829,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="412" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>2022</v>
       </c>
@@ -19864,7 +19873,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="413" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>2022</v>
       </c>
@@ -19908,7 +19917,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="414" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>2022</v>
       </c>
@@ -19952,7 +19961,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="415" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>2022</v>
       </c>
@@ -19996,7 +20005,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="416" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>2022</v>
       </c>
@@ -20040,7 +20049,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="417" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>2022</v>
       </c>
@@ -20084,7 +20093,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="418" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>2022</v>
       </c>
@@ -20128,7 +20137,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="419" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>2022</v>
       </c>
@@ -20172,7 +20181,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="420" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>2022</v>
       </c>
@@ -20216,7 +20225,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="421" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>2022</v>
       </c>
@@ -20260,7 +20269,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="422" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>2022</v>
       </c>
@@ -20304,7 +20313,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="423" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>2022</v>
       </c>
@@ -20348,7 +20357,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="424" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>2022</v>
       </c>
@@ -20392,7 +20401,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="425" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>2022</v>
       </c>
@@ -20436,7 +20445,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="426" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>2022</v>
       </c>
@@ -20480,7 +20489,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="427" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>2022</v>
       </c>
@@ -20524,7 +20533,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="428" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>2022</v>
       </c>
@@ -20568,7 +20577,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="429" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>2022</v>
       </c>
@@ -20612,7 +20621,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="430" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>2022</v>
       </c>
@@ -20656,7 +20665,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="431" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>2022</v>
       </c>
@@ -20700,7 +20709,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="432" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>2022</v>
       </c>
@@ -20744,7 +20753,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="433" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>2022</v>
       </c>
@@ -20788,7 +20797,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="434" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>2022</v>
       </c>
@@ -20832,7 +20841,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="435" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>2022</v>
       </c>
@@ -20876,7 +20885,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="436" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>2022</v>
       </c>
@@ -20920,7 +20929,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="437" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>2022</v>
       </c>
@@ -20964,7 +20973,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="438" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>2022</v>
       </c>
@@ -21008,7 +21017,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="439" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>2022</v>
       </c>
@@ -21052,7 +21061,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>2022</v>
       </c>
@@ -21093,7 +21102,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="441" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>2022</v>
       </c>
@@ -21134,7 +21143,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="442" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>2022</v>
       </c>
@@ -21178,7 +21187,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="443" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>2022</v>
       </c>
@@ -21222,7 +21231,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="444" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>2022</v>
       </c>
@@ -21266,7 +21275,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="445" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>2022</v>
       </c>
@@ -21310,7 +21319,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="446" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>2022</v>
       </c>
@@ -21354,7 +21363,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="447" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>2022</v>
       </c>
@@ -21398,7 +21407,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="448" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>2022</v>
       </c>
@@ -21442,7 +21451,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="449" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>2022</v>
       </c>
@@ -21486,7 +21495,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="450" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>2022</v>
       </c>
@@ -21530,7 +21539,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="451" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>2022</v>
       </c>
@@ -21574,7 +21583,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="452" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>2022</v>
       </c>
@@ -21618,7 +21627,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="453" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>2018</v>
       </c>
@@ -21662,7 +21671,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="454" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>2018</v>
       </c>
@@ -21706,7 +21715,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="455" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>2018</v>
       </c>
@@ -21750,7 +21759,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="456" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>2018</v>
       </c>
@@ -21794,7 +21803,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="457" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>2018</v>
       </c>
@@ -21838,7 +21847,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="458" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>2018</v>
       </c>
@@ -21879,7 +21888,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="459" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>2018</v>
       </c>
@@ -21923,7 +21932,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="460" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>2018</v>
       </c>
@@ -21967,7 +21976,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="461" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>2018</v>
       </c>
@@ -22011,7 +22020,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="462" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>2018</v>
       </c>
@@ -22055,7 +22064,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="463" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>2018</v>
       </c>
@@ -22099,7 +22108,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="464" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>2018</v>
       </c>
@@ -22143,7 +22152,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="465" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>2018</v>
       </c>
@@ -22187,7 +22196,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="466" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>2018</v>
       </c>
@@ -22231,7 +22240,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="467" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>2018</v>
       </c>
@@ -22275,7 +22284,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="468" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>2018</v>
       </c>
@@ -22319,7 +22328,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="469" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>2018</v>
       </c>
@@ -22360,7 +22369,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="470" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>2018</v>
       </c>
@@ -22401,7 +22410,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="471" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>2018</v>
       </c>
@@ -22445,7 +22454,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="472" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>2018</v>
       </c>
@@ -22489,7 +22498,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="473" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>2018</v>
       </c>
@@ -22533,7 +22542,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="474" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>2018</v>
       </c>
@@ -22574,7 +22583,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="475" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>2018</v>
       </c>
@@ -22615,7 +22624,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="476" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>2018</v>
       </c>
@@ -22656,7 +22665,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="477" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>2018</v>
       </c>
@@ -22700,7 +22709,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="478" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>2018</v>
       </c>
@@ -22741,7 +22750,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="479" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>2018</v>
       </c>
@@ -22782,7 +22791,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="480" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>2018</v>
       </c>
@@ -22823,7 +22832,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="481" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>2018</v>
       </c>
@@ -22864,7 +22873,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="482" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>2018</v>
       </c>
@@ -22905,7 +22914,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="483" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>2018</v>
       </c>
@@ -22946,7 +22955,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="484" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>2018</v>
       </c>
@@ -22987,7 +22996,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="485" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>2018</v>
       </c>
@@ -23028,7 +23037,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="486" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>2018</v>
       </c>
@@ -23072,7 +23081,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="487" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>2018</v>
       </c>
@@ -23113,7 +23122,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="488" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>2018</v>
       </c>
@@ -23154,7 +23163,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="489" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>2018</v>
       </c>
@@ -23198,7 +23207,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="490" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>2018</v>
       </c>
@@ -23239,7 +23248,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="491" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>2018</v>
       </c>
@@ -23283,7 +23292,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="492" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>2018</v>
       </c>
@@ -23327,7 +23336,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="493" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>2018</v>
       </c>
@@ -23371,7 +23380,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="494" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>2018</v>
       </c>
@@ -23412,7 +23421,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="495" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>2018</v>
       </c>
@@ -23456,7 +23465,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="496" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>2018</v>
       </c>
@@ -23500,7 +23509,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="497" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>2018</v>
       </c>
@@ -23544,7 +23553,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="498" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>2018</v>
       </c>
@@ -23585,7 +23594,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="499" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>2018</v>
       </c>
@@ -23626,7 +23635,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="500" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>2018</v>
       </c>
@@ -23667,7 +23676,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="501" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>2018</v>
       </c>
@@ -23708,7 +23717,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="502" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>2018</v>
       </c>
@@ -23749,7 +23758,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="503" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>2018</v>
       </c>
@@ -23790,7 +23799,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="504" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>2018</v>
       </c>
@@ -23831,7 +23840,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="505" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>2018</v>
       </c>
@@ -23872,7 +23881,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="506" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>2018</v>
       </c>
@@ -23916,7 +23925,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="507" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>2018</v>
       </c>
@@ -23960,7 +23969,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="508" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>2018</v>
       </c>
@@ -24004,7 +24013,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="509" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>2018</v>
       </c>
@@ -24048,7 +24057,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="510" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>2018</v>
       </c>
@@ -24089,7 +24098,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="511" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>2018</v>
       </c>
